--- a/PortalProgramacao.Web/wwwroot/files/Planilha padrao entrada portal.xlsx
+++ b/PortalProgramacao.Web/wwwroot/files/Planilha padrao entrada portal.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iberdrola-my.sharepoint.com/personal/dalton_pessoa_neoenergia_com/Documents/Documentos/2022/Atividades/Portal Programacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u355107\repo\source\PortalProgramacao\PortalProgramacao.Web\wwwroot\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{3D4CF6F7-AA6B-4AB4-9288-39A84786F3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{942D4E44-D49D-4849-B5D7-48916EE1B33E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A42BE6D-55C1-4FAA-B59F-B36F2003D38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="309" xr2:uid="{27593830-3923-4240-8E27-5F50625F6241}"/>
+    <workbookView xWindow="14640" yWindow="3705" windowWidth="12750" windowHeight="9720" tabRatio="309" xr2:uid="{27593830-3923-4240-8E27-5F50625F6241}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Atividades" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/PortalProgramacao.Web/wwwroot/files/Planilha padrao entrada portal.xlsx
+++ b/PortalProgramacao.Web/wwwroot/files/Planilha padrao entrada portal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u355107\repo\source\PortalProgramacao\PortalProgramacao.Web\wwwroot\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A42BE6D-55C1-4FAA-B59F-B36F2003D38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECDD241-C1A2-4F9A-80CD-EFB0996770E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14640" yWindow="3705" windowWidth="12750" windowHeight="9720" tabRatio="309" xr2:uid="{27593830-3923-4240-8E27-5F50625F6241}"/>
   </bookViews>

--- a/PortalProgramacao.Web/wwwroot/files/Planilha padrao entrada portal.xlsx
+++ b/PortalProgramacao.Web/wwwroot/files/Planilha padrao entrada portal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u355107\repo\source\PortalProgramacao\PortalProgramacao.Web\wwwroot\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pesso\source\repos\PortalProgramacao\PortalProgramacao.Web\wwwroot\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECDD241-C1A2-4F9A-80CD-EFB0996770E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C7EA95-B17C-469E-A55E-866616DBA194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="3705" windowWidth="12750" windowHeight="9720" tabRatio="309" xr2:uid="{27593830-3923-4240-8E27-5F50625F6241}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="309" xr2:uid="{27593830-3923-4240-8E27-5F50625F6241}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>LT-IDD2022-001</t>
-  </si>
-  <si>
     <t>PLANEJADA/PROGRAMADA/EXECUTADA</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>MRRSNW02j8</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -173,7 +173,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
+    <cellStyle name="Ênfase6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -489,27 +489,27 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -556,24 +556,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="4"/>
@@ -585,7 +585,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>14</v>
       </c>

--- a/PortalProgramacao.Web/wwwroot/files/Planilha padrao entrada portal.xlsx
+++ b/PortalProgramacao.Web/wwwroot/files/Planilha padrao entrada portal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pesso\source\repos\PortalProgramacao\PortalProgramacao.Web\wwwroot\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C7EA95-B17C-469E-A55E-866616DBA194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1F11E9-F5E5-4D22-AE59-646FF5E83EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="309" xr2:uid="{27593830-3923-4240-8E27-5F50625F6241}"/>
+    <workbookView xWindow="36300" yWindow="2115" windowWidth="17250" windowHeight="8865" tabRatio="309" xr2:uid="{27593830-3923-4240-8E27-5F50625F6241}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Chave</t>
   </si>
@@ -100,13 +100,19 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Origem</t>
+  </si>
+  <si>
+    <t>CSI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +123,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +185,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ênfase6" xfId="1" builtinId="49"/>
@@ -486,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07443A71-1949-4D65-B696-435746149F0A}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +524,7 @@
     <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -555,8 +570,14 @@
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -584,8 +605,10 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>14</v>
       </c>
